--- a/프로그래밍/자료 정리.xlsx
+++ b/프로그래밍/자료 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghksd\OneDrive\Desktop\결손\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghksd\OneDrive\Desktop\결손GitHub\SAproject\프로그래밍\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFA170-180F-43D9-9AA4-E0231DFC98EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C84C677-0F73-4D8E-B559-F73489E62026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="870" windowWidth="18000" windowHeight="10350" xr2:uid="{BD255C66-7980-41D6-86DE-AE94426E5312}"/>
+    <workbookView xWindow="-60" yWindow="2295" windowWidth="18000" windowHeight="10350" xr2:uid="{BD255C66-7980-41D6-86DE-AE94426E5312}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>수치명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>호감도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -155,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>생존여건조사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>boolean(불형)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,6 +188,122 @@
   <si>
     <t xml:space="preserve">캐릭터마다 있는 캐릭터의 생존 여건 중 하나입니다.
 생존여건은 0이 되면 패널티가 존재합니다. 0이 될 시의 패널티는 '작업을 통해 다른 캐릭터의 생존여건 회복 불가'입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존여건조사(isDead)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 0일 경우 true값이 되는 boolean형 변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 스탯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신력이 0일 경우 true값이 되는 boolean형 변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 건강이 0일 경우 true값이 되는 boolean형 변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복력이 (서툼)인지, (보통)인지, (능숙)인지 나타내는 int형 변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(서툼)은 1, (보통)은 2, (능숙)은 3으로 나타냅니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정도가 (서툼)인지, (보통)인지, (능숙)인지 나타내는 int형 변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위생도가 (서툼)인지, (보통)인지, (능숙)인지 나타내는 int형 변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복력상태(strengthState)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정도상태(mentalState)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위생도상태(healthState)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력검사(strengthEmpty)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신력검사(mentalEmpty)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강검사(healthEmpty)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 호감도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 호감도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 객체가 만들어질 때 초기화되는 int형 변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 객체가 만들어질 때 0으로 초기화되는 int형 변수입니다. 지속적으로 증감합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFemale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 여성이면 true값으로 초기화하는 boolean변수입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFemale 값이 false면 -1로 고정됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관계가 (나쁨)인지, (보통)인지, (좋음)인지 확인하는 변수입니다. 관계는 45 이하가 (나쁨), 45초과, 85이하가 (보통), 85이상이 (좋음)입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나쁨)은 1, (보통)은 2, (좋음)은 3으로 표시됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계Check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계[4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나르키와의 관계는 0번 배열, 그리디아와의 관계는 1번 배열, 페시호와의 관계는 2번 배열, 로브와의 관계는 3번 배열에 저장합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터간 관계를 나타내는 int형 배열 변수입니다. 관계는 호감도가 바뀔때마다 지속적으로 변경됩니다.
+case 호감도/140&gt;=1
+관계=100
+case else
+관계=(double)(호감도/140)*100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -337,15 +445,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -372,13 +471,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,32 +538,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA385E7-4A23-4BDF-AACB-8E01A782CEE3}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -770,7 +911,7 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="36.75" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -781,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -801,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -810,19 +951,19 @@
         <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -831,321 +972,536 @@
         <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="18" t="s">
         <v>36</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>150</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>120</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>120</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>120</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>100</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15">
+        <v>-999</v>
+      </c>
+      <c r="D17" s="15">
+        <v>999</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>150</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="F21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>120</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>120</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>100</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="G23" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="20"/>
+      <c r="G24" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/프로그래밍/자료 정리.xlsx
+++ b/프로그래밍/자료 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghksd\OneDrive\Desktop\결손GitHub\SAproject\프로그래밍\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C84C677-0F73-4D8E-B559-F73489E62026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C41C34-4238-4829-8069-83C16E961AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="2295" windowWidth="18000" windowHeight="10350" xr2:uid="{BD255C66-7980-41D6-86DE-AE94426E5312}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BD255C66-7980-41D6-86DE-AE94426E5312}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>수치명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -208,10 +208,6 @@
   </si>
   <si>
     <t>1) 건강이 0일 경우 true값이 되는 boolean형 변수입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복력이 (서툼)인지, (보통)인지, (능숙)인지 나타내는 int형 변수입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -304,6 +300,34 @@
 관계=100
 case else
 관계=(double)(호감도/140)*100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복력이 (서툼)인지, (보통)인지, (능숙)인지 나타내는 int형 변수입니다. 40 이하는 (서툼), 40 초과 90 이하는 (보통), 90 초과는 (능숙)으로 분류합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거점 변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일차(day_count)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 사이클 상 일차수를 나타낼 int형 변수입니다. 결산 씬을 마치면 하루가 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 공백 검사(placeEmpty_check)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 작업에 캐릭터를 배치하였는지 검사하는 boolean형 변수입니다. 탐색, 취사, 경계 작업(2개)에 맞춰 총 4개의 변수가 존재하며 해당 작업에 캐릭터가 배치된 상태로 일정이 진행되면 true, 만약 캐릭터가 배치되지 않은 상태라면 false로 초기화 됩니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -899,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA385E7-4A23-4BDF-AACB-8E01A782CEE3}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H27" sqref="H26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1030,7 @@
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>30</v>
@@ -1027,7 +1051,7 @@
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>30</v>
@@ -1048,7 +1072,7 @@
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>30</v>
@@ -1111,7 +1135,7 @@
     </row>
     <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>16</v>
@@ -1126,10 +1150,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1151,9 +1175,9 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>16</v>
@@ -1168,10 +1192,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1193,9 +1217,9 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>16</v>
@@ -1210,15 +1234,15 @@
         <v>12</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>30</v>
@@ -1233,13 +1257,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>16</v>
@@ -1254,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>16</v>
@@ -1275,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -1299,12 +1323,12 @@
         <v>37</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>16</v>
@@ -1319,15 +1343,15 @@
         <v>12</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>16</v>
@@ -1342,10 +1366,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1440,22 +1464,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10"/>
+    <row r="25" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>999</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="10"/>
+    <row r="26" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
